--- a/Role_Skill_Report_(SW_Division).xlsx
+++ b/Role_Skill_Report_(SW_Division).xlsx
@@ -5,7 +5,7 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\05_LinhTinh\99_Draft\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\00_Git\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SS3_Role_level_until2013K!$A$1:$X$49</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -837,16 +837,23 @@
 &amp; Action item</t>
   </si>
   <si>
-    <t>- Improve JAVA debugging skill</t>
-  </si>
-  <si>
-    <t>- Can trace and debug with source code which use many</t>
+    <t>Improve JAVA debugging skill</t>
+  </si>
+  <si>
+    <t>Know how to work (can debug and trace flow) of Asynchronous Methods in DSF service
+- Request Monitor
+- Data Request Monitor
+- Couting Request Monitor
+(Refer some plugin as Coverage, Trace, Eventpoint for example)
+Can trace and debug source code invoked by some events such as:
+- PropertyChangeSupport (Refer Coverage and Trace for example)
+- Event is invoked by GUI (Almost plugins)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="25">
     <font>
       <sz val="11"/>
@@ -1531,7 +1538,7 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1583,6 +1590,42 @@
     <xf numFmtId="0" fontId="0" fillId="27" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="10" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="25" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1607,50 +1650,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="28" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="28" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="27" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="27" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="10" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -1804,13 +1817,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1886,13 +1899,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1047750</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5941,10 +5954,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD15"/>
+  <dimension ref="A1:AD14"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1"/>
@@ -5961,7 +5974,7 @@
     <col min="10" max="10" width="8.5703125" customWidth="1"/>
     <col min="11" max="11" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="20.5703125" customWidth="1" outlineLevel="1"/>
-    <col min="13" max="13" width="8.140625" bestFit="1" customWidth="1" outlineLevel="1"/>
+    <col min="13" max="13" width="32.5703125" customWidth="1" outlineLevel="1"/>
     <col min="14" max="14" width="4.85546875" bestFit="1" customWidth="1" outlineLevel="1"/>
     <col min="15" max="15" width="8.140625" bestFit="1" customWidth="1" outlineLevel="1"/>
     <col min="16" max="16" width="4.85546875" bestFit="1" customWidth="1" outlineLevel="1"/>
@@ -5986,118 +5999,118 @@
       <c r="B1" s="4"/>
     </row>
     <row r="3" spans="1:30" ht="21">
-      <c r="H3" s="31" t="s">
+      <c r="H3" s="24" t="s">
         <v>226</v>
       </c>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="32"/>
-      <c r="N3" s="32"/>
-      <c r="O3" s="32"/>
-      <c r="P3" s="32"/>
-      <c r="Q3" s="32"/>
-      <c r="R3" s="32"/>
-      <c r="S3" s="32"/>
-      <c r="T3" s="32"/>
-      <c r="U3" s="32"/>
-      <c r="V3" s="32"/>
-      <c r="W3" s="32"/>
-      <c r="X3" s="32"/>
-      <c r="Y3" s="32"/>
-      <c r="Z3" s="32"/>
-      <c r="AA3" s="32"/>
-      <c r="AB3" s="33" t="s">
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="25"/>
+      <c r="P3" s="25"/>
+      <c r="Q3" s="25"/>
+      <c r="R3" s="25"/>
+      <c r="S3" s="25"/>
+      <c r="T3" s="25"/>
+      <c r="U3" s="25"/>
+      <c r="V3" s="25"/>
+      <c r="W3" s="25"/>
+      <c r="X3" s="25"/>
+      <c r="Y3" s="25"/>
+      <c r="Z3" s="25"/>
+      <c r="AA3" s="25"/>
+      <c r="AB3" s="26" t="s">
         <v>225</v>
       </c>
-      <c r="AC3" s="34"/>
-      <c r="AD3" s="35"/>
+      <c r="AC3" s="27"/>
+      <c r="AD3" s="28"/>
     </row>
     <row r="4" spans="1:30" ht="15" customHeight="1">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="18" t="s">
         <v>193</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="18" t="s">
         <v>201</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="18" t="s">
         <v>190</v>
       </c>
-      <c r="D4" s="36" t="s">
+      <c r="D4" s="18" t="s">
         <v>189</v>
       </c>
-      <c r="E4" s="36" t="s">
+      <c r="E4" s="18" t="s">
         <v>191</v>
       </c>
-      <c r="F4" s="36" t="s">
+      <c r="F4" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="36" t="s">
+      <c r="G4" s="18" t="s">
         <v>192</v>
       </c>
-      <c r="H4" s="27" t="s">
+      <c r="H4" s="20" t="s">
         <v>187</v>
       </c>
-      <c r="I4" s="27" t="s">
+      <c r="I4" s="20" t="s">
         <v>188</v>
       </c>
-      <c r="J4" s="29" t="s">
+      <c r="J4" s="37" t="s">
         <v>194</v>
       </c>
-      <c r="K4" s="30"/>
-      <c r="L4" s="25" t="s">
+      <c r="K4" s="38"/>
+      <c r="L4" s="22" t="s">
         <v>214</v>
       </c>
-      <c r="M4" s="26"/>
-      <c r="N4" s="25" t="s">
+      <c r="M4" s="23"/>
+      <c r="N4" s="22" t="s">
         <v>218</v>
       </c>
-      <c r="O4" s="26"/>
-      <c r="P4" s="25" t="s">
+      <c r="O4" s="23"/>
+      <c r="P4" s="22" t="s">
         <v>219</v>
       </c>
-      <c r="Q4" s="26"/>
-      <c r="R4" s="25" t="s">
+      <c r="Q4" s="23"/>
+      <c r="R4" s="22" t="s">
         <v>220</v>
       </c>
-      <c r="S4" s="26"/>
-      <c r="T4" s="25" t="s">
+      <c r="S4" s="23"/>
+      <c r="T4" s="22" t="s">
         <v>221</v>
       </c>
-      <c r="U4" s="26"/>
-      <c r="V4" s="25" t="s">
+      <c r="U4" s="23"/>
+      <c r="V4" s="22" t="s">
         <v>222</v>
       </c>
-      <c r="W4" s="26"/>
-      <c r="X4" s="25" t="s">
+      <c r="W4" s="23"/>
+      <c r="X4" s="22" t="s">
         <v>223</v>
       </c>
-      <c r="Y4" s="26"/>
-      <c r="Z4" s="25" t="s">
+      <c r="Y4" s="23"/>
+      <c r="Z4" s="22" t="s">
         <v>224</v>
       </c>
-      <c r="AA4" s="26"/>
-      <c r="AB4" s="17" t="s">
+      <c r="AA4" s="23"/>
+      <c r="AB4" s="29" t="s">
         <v>211</v>
       </c>
-      <c r="AC4" s="17" t="s">
+      <c r="AC4" s="29" t="s">
         <v>205</v>
       </c>
-      <c r="AD4" s="17" t="s">
+      <c r="AD4" s="29" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="5" spans="1:30">
-      <c r="A5" s="37"/>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
+      <c r="A5" s="19"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
       <c r="J5" s="10" t="s">
         <v>199</v>
       </c>
@@ -6152,9 +6165,9 @@
       <c r="AA5" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="AB5" s="18"/>
-      <c r="AC5" s="18"/>
-      <c r="AD5" s="18"/>
+      <c r="AB5" s="30"/>
+      <c r="AC5" s="30"/>
+      <c r="AD5" s="30"/>
     </row>
     <row r="6" spans="1:30" ht="30">
       <c r="A6" s="13">
@@ -6217,22 +6230,22 @@
       </c>
     </row>
     <row r="7" spans="1:30" ht="45">
-      <c r="A7" s="19">
+      <c r="A7" s="31">
         <v>2</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="31" t="s">
         <v>202</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="34" t="s">
         <v>203</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="34" t="s">
         <v>204</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="34" t="s">
         <v>209</v>
       </c>
-      <c r="F7" s="22" t="s">
+      <c r="F7" s="34" t="s">
         <v>210</v>
       </c>
       <c r="G7" s="11" t="s">
@@ -6277,12 +6290,12 @@
       </c>
     </row>
     <row r="8" spans="1:30" ht="45">
-      <c r="A8" s="20"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
+      <c r="A8" s="32"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
       <c r="G8" s="11" t="s">
         <v>204</v>
       </c>
@@ -6324,32 +6337,32 @@
         <v>217</v>
       </c>
     </row>
-    <row r="9" spans="1:30" ht="150">
-      <c r="A9" s="21"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
+    <row r="9" spans="1:30" ht="225">
+      <c r="A9" s="33"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
       <c r="G9" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="H9" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="I9" s="9" t="s">
+      <c r="I9" s="40" t="s">
         <v>208</v>
       </c>
-      <c r="J9" s="8">
+      <c r="J9" s="41">
         <v>2</v>
       </c>
-      <c r="K9" s="8">
+      <c r="K9" s="41">
         <v>3</v>
       </c>
-      <c r="L9" s="38" t="s">
+      <c r="L9" s="39" t="s">
         <v>229</v>
       </c>
-      <c r="M9" s="39" t="s">
+      <c r="M9" s="17" t="s">
         <v>230</v>
       </c>
       <c r="N9" s="15"/>
@@ -6536,40 +6549,29 @@
       <c r="AC14" s="7"/>
       <c r="AD14" s="5"/>
     </row>
-    <row r="15" spans="1:30">
-      <c r="A15" s="12"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="16"/>
-      <c r="N15" s="15"/>
-      <c r="O15" s="16"/>
-      <c r="P15" s="15"/>
-      <c r="Q15" s="16"/>
-      <c r="R15" s="15"/>
-      <c r="S15" s="16"/>
-      <c r="T15" s="15"/>
-      <c r="U15" s="16"/>
-      <c r="V15" s="15"/>
-      <c r="W15" s="16"/>
-      <c r="X15" s="15"/>
-      <c r="Y15" s="16"/>
-      <c r="Z15" s="15"/>
-      <c r="AA15" s="16"/>
-      <c r="AB15" s="3"/>
-      <c r="AC15" s="7"/>
-      <c r="AD15" s="5"/>
-    </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="F7:F9"/>
+    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="V4:W4"/>
+    <mergeCell ref="X4:Y4"/>
+    <mergeCell ref="Z4:AA4"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="H3:AA3"/>
+    <mergeCell ref="AB3:AD3"/>
+    <mergeCell ref="AD4:AD5"/>
+    <mergeCell ref="AB4:AB5"/>
+    <mergeCell ref="AC4:AC5"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
@@ -6578,29 +6580,8 @@
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="E4:E5"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="R4:S4"/>
-    <mergeCell ref="H3:AA3"/>
-    <mergeCell ref="AB3:AD3"/>
-    <mergeCell ref="AD4:AD5"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="F7:F9"/>
-    <mergeCell ref="T4:U4"/>
-    <mergeCell ref="V4:W4"/>
-    <mergeCell ref="X4:Y4"/>
-    <mergeCell ref="Z4:AA4"/>
-    <mergeCell ref="AB4:AB5"/>
-    <mergeCell ref="AC4:AC5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="L4:M4"/>
   </mergeCells>
-  <conditionalFormatting sqref="AB6:AB15">
+  <conditionalFormatting sqref="AB6:AB14">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"Abnormal"</formula>
     </cfRule>
@@ -6609,14 +6590,14 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6:B7 B10:B15">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6:B7 B10:B14">
       <formula1>"29G,30G,31G"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB6:AB15">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J6:K9 J10:K14">
+      <formula1>"1,2,3,4,5"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB6:AB14">
       <formula1>"Normal,Abnormal"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J6:K15">
-      <formula1>"1,2,3,4,5"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
